--- a/E1/Guide/reponsebloccompetences.xlsx
+++ b/E1/Guide/reponsebloccompetences.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daumer-g\Desktop\vscode\Projet-chef-d-oeuvre\E1\Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\PCO\E1\Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFB801-3905-4C0C-8652-CFF80123914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>A1. Développer la gestion des données analytiques d’un projet d’application</t>
   </si>
@@ -171,13 +172,16 @@
     <t>Localisation dans le fichier Word</t>
   </si>
   <si>
-    <t>Annexe 1 : Rapports d'avancement + Partie 6.2 Gestion de projet</t>
+    <t>E2 slide 8</t>
+  </si>
+  <si>
+    <t>E2 slide 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,21 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="118" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -529,13 +533,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -545,8 +549,11 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -556,8 +563,11 @@
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -567,14 +577,17 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -584,8 +597,11 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -595,8 +611,11 @@
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -606,8 +625,11 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -617,8 +639,11 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -628,13 +653,16 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -644,8 +672,11 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -655,8 +686,11 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -666,8 +700,11 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -677,8 +714,11 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -688,8 +728,11 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -699,8 +742,11 @@
       <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -710,14 +756,17 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -727,8 +776,11 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -738,8 +790,11 @@
       <c r="C26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -749,8 +804,8 @@
       <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
+      <c r="D27">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
